--- a/biology/Zoologie/Exochomus/Exochomus.xlsx
+++ b/biology/Zoologie/Exochomus/Exochomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exochomus est un genre d'insectes coléoptères de la famille des coccinelles, de la sous-famille des Chilocorinae.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste d'espèces nord-américaines
-Selon ITIS      (29 août 2014)[1] :
+          <t>Liste d'espèces nord-américaines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 août 2014) :
 Exochomus aethiops (Bland, 1864)
 Exochomus californicus Casey, 1899
 Exochomus childreni Mulsant, 1850
@@ -523,9 +540,43 @@
 Exochomus marginipennis (LeConte, 1824)
 Exochomus metallicus Korschefsky, 1935
 Exochomus subrotundus Casey, 1899
-Exochomus townsendi Casey, 1908
-Liste d'espèces européennes[2]
-Exochomus (Exochomus) cedri (Sahlberg, 1913)
+Exochomus townsendi Casey, 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Exochomus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exochomus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces européennes[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Exochomus (Exochomus) cedri (Sahlberg, 1913)
 Exochomus (Exochomus) oblongus (Weidenbach, 1859)
 Exochomus (Exochomus) octosignatus (Gebler, 1830)
 Exochomus (Exochomus) quadripustulatus (Linnaeus, 1758)
